--- a/Webccam_checkQr/File_adress.xlsx
+++ b/Webccam_checkQr/File_adress.xlsx
@@ -65,25 +65,25 @@
     <t>SPXVN04133177633D</t>
   </si>
   <si>
-    <t>Ngõ 35 , Doãn Kế Thiện,Cầu Giấy,Hà Nội</t>
-  </si>
-  <si>
     <t>SPXVN04133177633E</t>
   </si>
   <si>
-    <t>Trần Cung , Bắc Từ Liêm , Hà Nội</t>
-  </si>
-  <si>
     <t>SPXVN04133177632H</t>
   </si>
   <si>
-    <t>Kiến Hưng , Hà Đông , Hà Nội</t>
-  </si>
-  <si>
     <t>SPXVN04133177655Q</t>
   </si>
   <si>
-    <t>Quang Trung , Hà Đông , Hà Nội</t>
+    <t>Trần Cung, Bắc Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Ngõ 35, Doãn Kế Thiện, Cầu Giấy, Hà Nội</t>
+  </si>
+  <si>
+    <t>Kiến Hưng, Hà Đông, Hà Nội</t>
+  </si>
+  <si>
+    <t>Quang Trung, Hà Đông, Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -207,11 +207,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="QR" dataDxfId="3"/>
-    <tableColumn id="2" name="Address" dataDxfId="2"/>
+    <tableColumn id="1" name="QR" dataDxfId="1"/>
+    <tableColumn id="2" name="Address" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
     <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -567,33 +567,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
